--- a/Setup/MazeDimensions_new2021_SPT_ant.xlsx
+++ b/Setup/MazeDimensions_new2021_SPT_ant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>exit_size</t>
   </si>
@@ -149,40 +149,31 @@
     <t>2.65, 3.42</t>
   </si>
   <si>
-    <t>3.28, 4.77</t>
-  </si>
-  <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>13.02, 18.75</t>
-  </si>
-  <si>
-    <t>6.46, 9.51</t>
-  </si>
-  <si>
     <t>used to be</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>3.23, 4.79</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>6.42, 9.53</t>
   </si>
   <si>
     <t>13.02, 18.85</t>
+  </si>
+  <si>
+    <t>13.077, 18.696</t>
+  </si>
+  <si>
+    <t>6.455, 9.559</t>
+  </si>
+  <si>
+    <t>3.32, 5.013</t>
+  </si>
+  <si>
+    <t>2.65, 3.36</t>
   </si>
 </sst>
 </file>
@@ -507,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +514,7 @@
     <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -543,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -554,8 +545,11 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -569,22 +563,22 @@
         <v>3.75</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -598,22 +592,22 @@
         <v>1.85</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>0.18</v>
       </c>
       <c r="I3" s="1">
-        <v>1.85</v>
+        <v>1.865</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -627,22 +621,22 @@
         <v>0.92</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -662,16 +656,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.54</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -691,7 +685,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -711,7 +705,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -731,7 +725,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -751,7 +745,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -771,7 +765,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -791,7 +785,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -811,7 +805,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
